--- a/assignment 2/flipkart buy product scenarios.xlsx
+++ b/assignment 2/flipkart buy product scenarios.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\2ND MODULE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\SAPNA-RAWAT\assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E81401-3A5A-4FFA-AD2F-FAA0D900769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCB8853-38F4-428C-971F-5313D1FD721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="facebook" sheetId="1" r:id="rId1"/>
+    <sheet name="flipkart" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -135,7 +135,7 @@
     <t>sometimes the placed order gets cancelled automatically by the seller or flipkart.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                  facebook</t>
+    <t xml:space="preserve">                                                                   flipcart</t>
   </si>
 </sst>
 </file>

--- a/assignment 2/flipkart buy product scenarios.xlsx
+++ b/assignment 2/flipkart buy product scenarios.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\GitHub\SAPNA-RAWAT\assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCB8853-38F4-428C-971F-5313D1FD721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6C5EA8-85E6-4F07-929C-C56A7310A333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="flipkart" sheetId="1" r:id="rId1"/>
+    <sheet name="flipcart" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -135,7 +135,7 @@
     <t>sometimes the placed order gets cancelled automatically by the seller or flipkart.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                   flipcart</t>
+    <t xml:space="preserve">                                                                    flipcart</t>
   </si>
 </sst>
 </file>
@@ -511,14 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
     <col min="3" max="3" width="92.44140625" customWidth="1"/>
   </cols>
